--- a/Datasheet/CardData.xlsx
+++ b/Datasheet/CardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolst\Desktop\ㅇㅇㅇ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolst\Desktop\Develop\GitHub\ValutOfHeaven\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DED278-B112-4A9C-B429-4F2EB991B61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB07B536-C3B3-4DA9-ABE5-33AB2CFFD3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34665" yWindow="3420" windowWidth="23220" windowHeight="7830" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="2955" windowWidth="23220" windowHeight="7830" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,64 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DD_01</t>
-  </si>
-  <si>
-    <t>CL_01</t>
-  </si>
-  <si>
-    <t>CA_01</t>
-  </si>
-  <si>
-    <t>BB_01</t>
-  </si>
-  <si>
-    <t>CV_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS_01</t>
-  </si>
-  <si>
-    <t>FF_01</t>
-  </si>
-  <si>
-    <t>DDG_01</t>
-  </si>
-  <si>
-    <t>BC_01</t>
-  </si>
-  <si>
-    <t>CVL_01</t>
-  </si>
-  <si>
-    <t>CLAA_01</t>
-  </si>
-  <si>
-    <t>LSV_01</t>
-  </si>
-  <si>
-    <t>SSN_01</t>
-  </si>
-  <si>
-    <t>AE_01</t>
-  </si>
-  <si>
-    <t>PT_01</t>
-  </si>
-  <si>
-    <t>CB_01</t>
-  </si>
-  <si>
-    <t>DDX_01</t>
-  </si>
-  <si>
-    <t>SSK_01</t>
-  </si>
-  <si>
-    <t>AM_01</t>
-  </si>
-  <si>
     <t>DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,10 +110,6 @@
     <t>AM</t>
   </si>
   <si>
-    <t>CardIcon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CardIcon_2</t>
   </si>
   <si>
@@ -196,34 +134,122 @@
     <t>CardIcon_9</t>
   </si>
   <si>
-    <t>CardIcon_10</t>
-  </si>
-  <si>
-    <t>CardIcon_11</t>
-  </si>
-  <si>
-    <t>CardIcon_12</t>
-  </si>
-  <si>
-    <t>CardIcon_13</t>
-  </si>
-  <si>
-    <t>CardIcon_14</t>
-  </si>
-  <si>
-    <t>CardIcon_15</t>
-  </si>
-  <si>
-    <t>CardIcon_16</t>
-  </si>
-  <si>
-    <t>CardIcon_17</t>
-  </si>
-  <si>
-    <t>CardIcon_18</t>
-  </si>
-  <si>
-    <t>CardIcon_19</t>
+    <t>nameKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JINMU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구축 비공정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardIcon</t>
+  </si>
+  <si>
+    <t>CardIcon0</t>
+  </si>
+  <si>
+    <t>CardIcon1</t>
+  </si>
+  <si>
+    <t>CardIcon2</t>
+  </si>
+  <si>
+    <t>CardIcon3</t>
+  </si>
+  <si>
+    <t>CardIcon4</t>
+  </si>
+  <si>
+    <t>CardIcon5</t>
+  </si>
+  <si>
+    <t>CardIcon6</t>
+  </si>
+  <si>
+    <t>CardIcon7</t>
+  </si>
+  <si>
+    <t>CardIcon8</t>
+  </si>
+  <si>
+    <t>CardIcon9</t>
+  </si>
+  <si>
+    <t>Unit_CL</t>
+  </si>
+  <si>
+    <t>Unit_CA</t>
+  </si>
+  <si>
+    <t>Unit_BB</t>
+  </si>
+  <si>
+    <t>Unit_CV</t>
+  </si>
+  <si>
+    <t>Unit_SS</t>
+  </si>
+  <si>
+    <t>Unit_FF</t>
+  </si>
+  <si>
+    <t>Unit_DDG</t>
+  </si>
+  <si>
+    <t>Unit_BC</t>
+  </si>
+  <si>
+    <t>Unit_CVL</t>
+  </si>
+  <si>
+    <t>Unit_CLAA</t>
+  </si>
+  <si>
+    <t>Unit_LSV</t>
+  </si>
+  <si>
+    <t>Unit_SSN</t>
+  </si>
+  <si>
+    <t>Unit_AE</t>
+  </si>
+  <si>
+    <t>Unit_PT</t>
+  </si>
+  <si>
+    <t>Unit_CB</t>
+  </si>
+  <si>
+    <t>Unit_DDX</t>
+  </si>
+  <si>
+    <t>Unit_SSK</t>
+  </si>
+  <si>
+    <t>Unit_AM</t>
+  </si>
+  <si>
+    <t>tier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DescKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비공정 이야기한제국이 아트리시알국의 도움을 받아 최초로 근대화 개수한 구축 비공정이다.가성비와 신뢰성이 우수한 함선으로 천군의 든든한 친구란 별명이 있었다.   </t>
+  </si>
+  <si>
+    <t>Unit_DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -284,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -297,21 +323,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -345,7 +356,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -353,9 +364,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,236 +656,473 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="2" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Datasheet/CardData.xlsx
+++ b/Datasheet/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolst\Desktop\Develop\GitHub\ValutOfHeaven\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB07B536-C3B3-4DA9-ABE5-33AB2CFFD3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC03718-4087-4A4D-9BFF-535D5D3A1BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="2955" windowWidth="23220" windowHeight="7830" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,68 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>DDG</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>CVL</t>
-  </si>
-  <si>
-    <t>CLAA</t>
-  </si>
-  <si>
-    <t>LSV</t>
-  </si>
-  <si>
-    <t>SSN</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t>DDX</t>
-  </si>
-  <si>
-    <t>SSK</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
     <t>CardIcon_2</t>
   </si>
   <si>
@@ -153,90 +91,6 @@
     <t>CardIcon</t>
   </si>
   <si>
-    <t>CardIcon0</t>
-  </si>
-  <si>
-    <t>CardIcon1</t>
-  </si>
-  <si>
-    <t>CardIcon2</t>
-  </si>
-  <si>
-    <t>CardIcon3</t>
-  </si>
-  <si>
-    <t>CardIcon4</t>
-  </si>
-  <si>
-    <t>CardIcon5</t>
-  </si>
-  <si>
-    <t>CardIcon6</t>
-  </si>
-  <si>
-    <t>CardIcon7</t>
-  </si>
-  <si>
-    <t>CardIcon8</t>
-  </si>
-  <si>
-    <t>CardIcon9</t>
-  </si>
-  <si>
-    <t>Unit_CL</t>
-  </si>
-  <si>
-    <t>Unit_CA</t>
-  </si>
-  <si>
-    <t>Unit_BB</t>
-  </si>
-  <si>
-    <t>Unit_CV</t>
-  </si>
-  <si>
-    <t>Unit_SS</t>
-  </si>
-  <si>
-    <t>Unit_FF</t>
-  </si>
-  <si>
-    <t>Unit_DDG</t>
-  </si>
-  <si>
-    <t>Unit_BC</t>
-  </si>
-  <si>
-    <t>Unit_CVL</t>
-  </si>
-  <si>
-    <t>Unit_CLAA</t>
-  </si>
-  <si>
-    <t>Unit_LSV</t>
-  </si>
-  <si>
-    <t>Unit_SSN</t>
-  </si>
-  <si>
-    <t>Unit_AE</t>
-  </si>
-  <si>
-    <t>Unit_PT</t>
-  </si>
-  <si>
-    <t>Unit_CB</t>
-  </si>
-  <si>
-    <t>Unit_DDX</t>
-  </si>
-  <si>
-    <t>Unit_SSK</t>
-  </si>
-  <si>
-    <t>Unit_AM</t>
-  </si>
-  <si>
     <t>tier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,8 +102,107 @@
     <t xml:space="preserve">비공정 이야기한제국이 아트리시알국의 도움을 받아 최초로 근대화 개수한 구축 비공정이다.가성비와 신뢰성이 우수한 함선으로 천군의 든든한 친구란 별명이 있었다.   </t>
   </si>
   <si>
-    <t>Unit_DD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>DST_Fubuki</t>
+  </si>
+  <si>
+    <t>DST_Shigure</t>
+  </si>
+  <si>
+    <t>DST_NorthernSupport</t>
+  </si>
+  <si>
+    <t>CAR_Taejong</t>
+  </si>
+  <si>
+    <t>CAR_HMSEdward</t>
+  </si>
+  <si>
+    <t>CAR_HMSWelling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCR_Jeyeon</t>
+  </si>
+  <si>
+    <t>TCR_Gwangmu</t>
+  </si>
+  <si>
+    <t>TCR_Kaiyuan</t>
+  </si>
+  <si>
+    <t>BB_Kaiserreich</t>
+  </si>
+  <si>
+    <t>BB_Htailog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB_Inferno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardIcon_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardIcon_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardIcon_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비공정 이야기한제국이 아트리시알국의 도움을 받아 최초로 근대화 개수한 구축 비공정이다.가성비와 신뢰성이 우수한 함선으로 천군의 든든한 친구란 별명이 있었다.   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌격 비공정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중 비공정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전함 비공정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_DST_Fubuki</t>
+  </si>
+  <si>
+    <t>Unit_DST_Shigure</t>
+  </si>
+  <si>
+    <t>Unit_DST_NorthernSupport</t>
+  </si>
+  <si>
+    <t>Unit_CAR_Taejong</t>
+  </si>
+  <si>
+    <t>Unit_CAR_HMSEdward</t>
+  </si>
+  <si>
+    <t>Unit_CAR_HMSWelling</t>
+  </si>
+  <si>
+    <t>Unit_TCR_Jeyeon</t>
+  </si>
+  <si>
+    <t>Unit_TCR_Gwangmu</t>
+  </si>
+  <si>
+    <t>Unit_TCR_Kaiyuan</t>
+  </si>
+  <si>
+    <t>Unit_BB_Kaiserreich</t>
+  </si>
+  <si>
+    <t>Unit_BB_Inferno</t>
+  </si>
+  <si>
+    <t>Unit_BB_Htailog</t>
   </si>
 </sst>
 </file>
@@ -653,15 +606,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06D154A-F5E9-4D36-9F54-5726679D6CC3}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -670,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -679,450 +635,289 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
       <c r="G13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Datasheet/CardData.xlsx
+++ b/Datasheet/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolst\Desktop\Develop\GitHub\ValutOfHeaven\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC03718-4087-4A4D-9BFF-535D5D3A1BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780268E5-2F3A-463E-98CD-1F50D5E34671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,9 +69,6 @@
     <t>CardIcon_8</t>
   </si>
   <si>
-    <t>CardIcon_9</t>
-  </si>
-  <si>
     <t>nameKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,57 +99,6 @@
     <t xml:space="preserve">비공정 이야기한제국이 아트리시알국의 도움을 받아 최초로 근대화 개수한 구축 비공정이다.가성비와 신뢰성이 우수한 함선으로 천군의 든든한 친구란 별명이 있었다.   </t>
   </si>
   <si>
-    <t>DST_Fubuki</t>
-  </si>
-  <si>
-    <t>DST_Shigure</t>
-  </si>
-  <si>
-    <t>DST_NorthernSupport</t>
-  </si>
-  <si>
-    <t>CAR_Taejong</t>
-  </si>
-  <si>
-    <t>CAR_HMSEdward</t>
-  </si>
-  <si>
-    <t>CAR_HMSWelling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCR_Jeyeon</t>
-  </si>
-  <si>
-    <t>TCR_Gwangmu</t>
-  </si>
-  <si>
-    <t>TCR_Kaiyuan</t>
-  </si>
-  <si>
-    <t>BB_Kaiserreich</t>
-  </si>
-  <si>
-    <t>BB_Htailog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BB_Inferno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardIcon_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardIcon_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardIcon_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">비공정 이야기한제국이 아트리시알국의 도움을 받아 최초로 근대화 개수한 구축 비공정이다.가성비와 신뢰성이 우수한 함선으로 천군의 든든한 친구란 별명이 있었다.   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,48 +107,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공중 비공정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전함 비공정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unit_DST_Fubuki</t>
-  </si>
-  <si>
-    <t>Unit_DST_Shigure</t>
-  </si>
-  <si>
-    <t>Unit_DST_NorthernSupport</t>
-  </si>
-  <si>
-    <t>Unit_CAR_Taejong</t>
-  </si>
-  <si>
-    <t>Unit_CAR_HMSEdward</t>
-  </si>
-  <si>
-    <t>Unit_CAR_HMSWelling</t>
-  </si>
-  <si>
-    <t>Unit_TCR_Jeyeon</t>
-  </si>
-  <si>
-    <t>Unit_TCR_Gwangmu</t>
-  </si>
-  <si>
-    <t>Unit_TCR_Kaiyuan</t>
-  </si>
-  <si>
-    <t>Unit_BB_Kaiserreich</t>
-  </si>
-  <si>
-    <t>Unit_BB_Inferno</t>
-  </si>
-  <si>
-    <t>Unit_BB_Htailog</t>
+    <t>nomal_ad_fury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_ad_jinmu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nomal_tb_tuyenquang</t>
+  </si>
+  <si>
+    <t>nomal_bb_drake</t>
+  </si>
+  <si>
+    <t>high_bb_london</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 비공정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nomal_sc_gaiseric</t>
+  </si>
+  <si>
+    <t>정찰 비공정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_sc_courageous</t>
+  </si>
+  <si>
+    <t>Unit_nomal_ad_fury</t>
+  </si>
+  <si>
+    <t>Unit_high_ad_jinmu</t>
+  </si>
+  <si>
+    <t>Unit_nomal_tb_tuyenquang</t>
+  </si>
+  <si>
+    <t>Unit_nomal_bb_drake</t>
+  </si>
+  <si>
+    <t>Unit_high_bb_london</t>
+  </si>
+  <si>
+    <t>Unit_nomal_sc_gaiseric</t>
+  </si>
+  <si>
+    <t>Unit_high_sc_courageous</t>
+  </si>
+  <si>
+    <t>Unit_nomal_sp_qw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nomal_sp_qw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -606,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06D154A-F5E9-4D36-9F54-5726679D6CC3}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -617,7 +584,8 @@
     <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -626,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -635,41 +603,41 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -678,44 +646,44 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -724,21 +692,21 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -747,44 +715,44 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -793,21 +761,21 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -816,108 +784,16 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
